--- a/RAG_knowledge_base_template.xlsx
+++ b/RAG_knowledge_base_template.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projeckt\potokCash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29739CB2-0CEE-474D-955A-C183B0BB6CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782B474-5D30-42C1-9CA5-AF8A0B4AFB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About_Project" sheetId="1" r:id="rId1"/>
-    <sheet name="Income_Streams" sheetId="2" r:id="rId2"/>
-    <sheet name="Investment_Strategies" sheetId="3" r:id="rId3"/>
-    <sheet name="FAQ" sheetId="4" r:id="rId4"/>
-    <sheet name="Objections" sheetId="5" r:id="rId5"/>
-    <sheet name="Advantages" sheetId="6" r:id="rId6"/>
-    <sheet name="Crypto_Info" sheetId="7" r:id="rId7"/>
+    <sheet name="AML Policy" sheetId="8" r:id="rId2"/>
+    <sheet name="Income_Streams" sheetId="2" r:id="rId3"/>
+    <sheet name="Investment_Strategies" sheetId="3" r:id="rId4"/>
+    <sheet name="FAQ" sheetId="4" r:id="rId5"/>
+    <sheet name="Objections" sheetId="5" r:id="rId6"/>
+    <sheet name="Advantages" sheetId="6" r:id="rId7"/>
+    <sheet name="Crypto_Info" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="233">
   <si>
     <t>Question_or_Title</t>
   </si>
@@ -677,13 +678,146 @@
     <t xml:space="preserve">Кто такой Васадин </t>
   </si>
   <si>
-    <t>Основатель — Васадин. Зачем создал: чтобы дать людям возможность достичь финансовой независимости без эксплуатации. Намерение: проект создан не для личного обогащения, а как "Народный Банк" с прозрачными алгоритмами.</t>
-  </si>
-  <si>
-    <t>Основатель — Васадин. Зачем создал: чтобы дать людям возможность достичь финансовой независимости без эксплуатации. Намерение: проект создан не для личного обогащения, а как "Народный Банк" с прозрачными алгоритмами. Его телеграм канал - https://t.me/kodvasadin</t>
-  </si>
-  <si>
     <t>Кто основатель</t>
+  </si>
+  <si>
+    <t>Основатель — Васадин. Зачем создал: чтобы дать людям возможность достичь финансовой независимости без эксплуатации. Намерение: проект создан не для личного обогащения, а как "Фонд народного обеспечения" и если сказать проще это как народный банк прозрачными алгоритмами. Его телеграм канал - https://t.me/kodvasadin</t>
+  </si>
+  <si>
+    <t>Основатель — Васадин. Зачем создал: чтобы дать людям возможность достичь финансовой независимости без эксплуатации. Намерение: проект создан не для личного обогащения, а как "Фонд народного обеспечения" и если сказать проще это как народный банк прозрачными алгоритмами.</t>
+  </si>
+  <si>
+    <t>Правила Проекта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соглашение о соблюдении правил Системы взаимной финансовой поддержки ПотокCash.Залогом успешной работы Системы является неукоснительное соблюдение правил всеми участниками.
+Эти правила очень простые и вам будет несложно их соблюдать, тем более, что если вдруг в процессе у вас возникнут какие-либо трудности, вы всегда сможете обратиться за помощью к своему Лидеру.
+</t>
+  </si>
+  <si>
+    <t>Что такое AML-политика проекта ПотокCash?</t>
+  </si>
+  <si>
+    <t>AML-политика — это меры по борьбе с отмыванием денег и финансированием терроризма. Она включает в себя мониторинг транзакций, проверку происхождения средств и личностей пользователей, чтобы предотвратить участие в незаконной деятельности.</t>
+  </si>
+  <si>
+    <t>Что такое KYC-политика?</t>
+  </si>
+  <si>
+    <t>KYC (Know Your Customer) — «Знай своего клиента» — политика, требующая от сервиса удостоверяться в личности клиента, источнике его средств и цели транзакций.</t>
+  </si>
+  <si>
+    <t>Кто проводит AML/KYC-проверки?</t>
+  </si>
+  <si>
+    <t>Проверки проводятся AML-офицером сервиса, а также автоматизированными криптоаналитическими системами, отслеживающими транзакции и происхождение активов.</t>
+  </si>
+  <si>
+    <t>Что происходит при подозрительной активности?</t>
+  </si>
+  <si>
+    <t>Если транзакция вызвала подозрение (например, пришла с чёрной площадки), она может быть заморожена до прохождения полной KYC-проверки.</t>
+  </si>
+  <si>
+    <t>Какие платформы находятся в чёрном списке?</t>
+  </si>
+  <si>
+    <t>Tornado Cash, Hydra, Garantex, Bitpapa, NetEx24, Grinex, Rapira.net, EMCD, и другие санкционные или нелегальные ресурсы.</t>
+  </si>
+  <si>
+    <t>Что будет, если активы пришли с запрещённой платформы?</t>
+  </si>
+  <si>
+    <t>Такие активы блокируются, и возврат средств невозможен. Пользователь должен пройти проверку, но средства, поступившие с санкционных источников, не подлежат возврату.</t>
+  </si>
+  <si>
+    <t>Что означает «высокий риск» транзакции?</t>
+  </si>
+  <si>
+    <t>Если по анализу активов получены метки вроде SCAM, MIXER, TERRORISM, FRAUD и т.д., активы могут быть заморожены до полной верификации или навсегда.</t>
+  </si>
+  <si>
+    <t>Какие страны запрещены для регистрации?</t>
+  </si>
+  <si>
+    <t>Проект не принимает клиентов из США, Ирана, КНДР, Сирии, Афганистана, Судана, Йемена, Венесуэлы и других стран, указанных в списке запрещённых юрисдикций.</t>
+  </si>
+  <si>
+    <t>Какие документы нужны для прохождения KYC?</t>
+  </si>
+  <si>
+    <t>Паспорт / ID-карта / водительское удостоверение, селфи с документом и листом с датой и подписью, подтверждение происхождения средств и переписка с отправителем.</t>
+  </si>
+  <si>
+    <t>Как подтвердить происхождение средств?</t>
+  </si>
+  <si>
+    <t>Нужно предоставить: историю переводов с платформы или кошелька-отправителя (скрины и ссылки на транзакции), объяснение за что были получены средства (услуга, работа и т.п.), контакт с отправителем и переписку, подтверждающую отправку.</t>
+  </si>
+  <si>
+    <t>Сколько времени занимает проверка?</t>
+  </si>
+  <si>
+    <t>Сроки рассмотрения документов индивидуальны и не регламентируются. Сервис может запросить дополнительные документы в любое время.</t>
+  </si>
+  <si>
+    <t>Что будет после успешного прохождения KYC?</t>
+  </si>
+  <si>
+    <t>Если проверка прошла успешно, активы возвращаются клиенту с удержанием комиссии 10%.</t>
+  </si>
+  <si>
+    <t>Когда возврат активов невозможен?</t>
+  </si>
+  <si>
+    <t>Если по активам был получен служебный запрос от поставщика ликвидности или компетентных органов, возврат невозможен — актив считается вещественным доказательством.</t>
+  </si>
+  <si>
+    <t>Кто такой AML-офицер?</t>
+  </si>
+  <si>
+    <t>Это назначенное ответственное лицо, которое следит за выполнением правил по борьбе с отмыванием денег, проводит проверки, мониторит активность и сотрудничает с регулирующими органами.</t>
+  </si>
+  <si>
+    <t>Что делает сервис для соблюдения AML/KYC?</t>
+  </si>
+  <si>
+    <t>Проводит постоянный мониторинг транзакций, использует риск-ориентированный подход, проверяет клиентов, назначает AML-офицера, взаимодействует с органами власти по запросу.</t>
+  </si>
+  <si>
+    <t>Какова основная суть правил проекта ПотокCash?</t>
+  </si>
+  <si>
+    <t>Суть правил — в поддержании честности, активности и личной ответственности каждого участника. Участник — это не потребитель, а совладелец проекта, который влияет на его развитие и успех.</t>
+  </si>
+  <si>
+    <t>Какие 6 правил участника ПотокCash?</t>
+  </si>
+  <si>
+    <t>Понимаю, что становлюсь совладельцем проекта.
+Заинтересован в развитии проекта и готов прилагать усилия.
+Готов распространять достоверную информацию о проекте.
+Поддерживаю уровень потока и использую возможности системы.
+Готов постоянно учиться и развиваться.
+Принимаю и поддерживаю изменения условий проекта.</t>
+  </si>
+  <si>
+    <t>Что будет, если участник нарушит правила проекта?</t>
+  </si>
+  <si>
+    <t>Если участник нарушает правила, распространяет негатив или действует нечестно, система может остановить начисления, обнулить поток и удалить аккаунт навсегда.</t>
+  </si>
+  <si>
+    <t>Можно ли иметь несколько аккаунтов?</t>
+  </si>
+  <si>
+    <t>Нет. Каждый участник имеет право на один личный аккаунт. Создание дополнительных — нарушение принципов честности и может привести к блокировке.</t>
+  </si>
+  <si>
+    <t>Что нужно делать для ежедневного получения награды?</t>
+  </si>
+  <si>
+    <t>Необходимо нажимать кнопку «Начислить награду» каждые 24 часа в Растущем и Быстром потоках.</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>187</v>
       </c>
@@ -1277,12 +1411,28 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>188</v>
+    </row>
+    <row r="21" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1292,10 +1442,157 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488CD7CA-6313-4782-8A17-A022745A431D}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1382,12 +1679,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,12 +1730,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,18 +2088,42 @@
         <v>179</v>
       </c>
     </row>
+    <row r="44" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,12 +2185,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,17 +2303,25 @@
         <v>139</v>
       </c>
     </row>
+    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RAG_knowledge_base_template.xlsx
+++ b/RAG_knowledge_base_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projeckt\potokCash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782B474-5D30-42C1-9CA5-AF8A0B4AFB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B34793-5D30-479C-A620-6296FF574E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="231">
   <si>
     <t>Question_or_Title</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Какие принципы лежат в основе?</t>
-  </si>
-  <si>
-    <t>Финансовая платформа "Поток Кеш" (Cash Flow) помогает участникам создавать пассивный доход через инновационные денежные потоки с использованием криптовалюты ECR. Суть: обучение управлению деньгами, стабильный доход через 5 видов потоков (стартовый, растущий и др.). Полезен: новичкам, инвесторам, желающим освоить криптовалюты. Уникальность: закрытая экосистема с гарантированным спросом на ECR, акцент на практику, а не теорию.</t>
   </si>
   <si>
     <t>Глобальная цель: создать сообщество финансово свободных людей, где деньги — инструмент, а не "зло". Для людей: альтернатива банкам, хайпам и MLM-схемам; пространство для роста, стабильности и взаимопомощи.</t>
@@ -662,9 +659,6 @@
 Вся деятельность внутри проекта основана на личной инициативе участников и не требует юридического оформления.</t>
   </si>
   <si>
-    <t xml:space="preserve">Владелец этого бота </t>
-  </si>
-  <si>
     <t>Матусевич Василий Сергеевич — идейный вдохновитель и лидер проекта ПотокCash, а также владелец данного ИИ-ассистента.
 Бот создан по его инициативе для помощи участникам сообщества, чтобы быстро получать ответы на важные вопросы, понимать суть проекта и осваиваться в системе взаимной финансовой поддержки.</t>
   </si>
@@ -673,18 +667,6 @@
   </si>
   <si>
     <t>лотерея удачи беспроигрышная ежедневная лотерея 5 из 32. Участвовать может любой желающий, достаточно создать кабинет в проекте ПотокCash (наличие действующего потока не обязательно, но желательно). Существуют 3 вида лотов: Classic, Blue, Golden. В каждом лоте есть Jackpot (максимальный выигрыш за 5 угаданных чисел) и выигрыши за 4, 3, 2 угаданных числа.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кто такой Васадин </t>
-  </si>
-  <si>
-    <t>Кто основатель</t>
-  </si>
-  <si>
-    <t>Основатель — Васадин. Зачем создал: чтобы дать людям возможность достичь финансовой независимости без эксплуатации. Намерение: проект создан не для личного обогащения, а как "Фонд народного обеспечения" и если сказать проще это как народный банк прозрачными алгоритмами. Его телеграм канал - https://t.me/kodvasadin</t>
-  </si>
-  <si>
-    <t>Основатель — Васадин. Зачем создал: чтобы дать людям возможность достичь финансовой независимости без эксплуатации. Намерение: проект создан не для личного обогащения, а как "Фонд народного обеспечения" и если сказать проще это как народный банк прозрачными алгоритмами.</t>
   </si>
   <si>
     <t>Правила Проекта</t>
@@ -818,6 +800,18 @@
   </si>
   <si>
     <t>Необходимо нажимать кнопку «Начислить награду» каждые 24 часа в Растущем и Быстром потоках.</t>
+  </si>
+  <si>
+    <t>Дмитрий Васадин основатель Меркурий и плтформы "Поток Кеш" (Cash Flow). Зачем создал: чтобы дать людям возможность достичь финансовой независимости без эксплуатации. Намерение: проект создан не для личного обогащения, а как "Фонд народного обеспечения" и если сказать проще это как народный банк прозрачными алгоритмами. Его телеграм канал - https://t.me/kodvasadin</t>
+  </si>
+  <si>
+    <t>Лидер проекта</t>
+  </si>
+  <si>
+    <t>Финансовая платформа "Поток Кеш" (Cash Flow) помогает участникам создавать пассивный доход через инновационные денежные потоки с использованием криптовалюты ECR. Суть: обучение управлению деньгами, стабильный доход через 5 видов потоков (стартовый, растущий и др.). Полезен: новичкам, инвесторам, желающим освоить криптовалюты. Уникальность: закрытая экосистема с гарантированным спросом на ECR, акцент на практику, а не теорию.Основатель Дмитрий Васадин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Васадин основатель проекта </t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1280,15 +1274,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1296,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -1304,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1312,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -1320,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -1328,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1336,7 +1330,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -1344,95 +1338,87 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>219</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1465,122 +1451,122 @@
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1612,66 +1598,66 @@
     </row>
     <row r="2" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1703,26 +1689,26 @@
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1721,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,362 +1740,362 @@
     </row>
     <row r="2" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2142,42 +2128,42 @@
     </row>
     <row r="2" spans="1:2" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2189,7 +2175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -2209,106 +2195,106 @@
     </row>
     <row r="2" spans="1:2" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +2307,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,58 +2325,58 @@
     </row>
     <row r="2" spans="1:2" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/RAG_knowledge_base_template.xlsx
+++ b/RAG_knowledge_base_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projeckt\potokCash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B34793-5D30-479C-A620-6296FF574E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD56129-3C06-4E7B-B42F-50E813CD8919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About_Project" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="237">
   <si>
     <t>Question_or_Title</t>
   </si>
@@ -407,12 +407,6 @@
   </si>
   <si>
     <t>В "Стартовом Потоке" ECR принимаются по льготному курсу, который существенно выше рыночного. Курс может меняться по мере роста рыночной стоимости ECR, чтобы потоки оставались выгодными.</t>
-  </si>
-  <si>
-    <t>Где торгуется</t>
-  </si>
-  <si>
-    <t>На данный момент - на бирже BlackBit. Размещение на крупных биржах не планируется, чтобы избежать зависимости от их манипуляций и сосредоточиться на стабильном развитии.</t>
   </si>
   <si>
     <t>Подкрепление</t>
@@ -812,6 +806,30 @@
   </si>
   <si>
     <t xml:space="preserve">Васадин основатель проекта </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как пополнить баланс </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как купить </t>
+  </si>
+  <si>
+    <t>Сберкаса</t>
+  </si>
+  <si>
+    <t>Пополнение доступны только через крипто обменники. Также дотсупно видео иснтрукции  в вовкладке бота "Денежные потоки"</t>
+  </si>
+  <si>
+    <t>Сберкасса это личный кошелек. Внутри сберкассы есть мини биржа где вы можете купить ecr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата основания проекта </t>
+  </si>
+  <si>
+    <t>Дата основания 15 января 2013 год. Проекту уже более 12 лет</t>
+  </si>
+  <si>
+    <t>Екаренси покупается в сберкассе и манисторедж или блек бит. Сберкасса это личный кошелек. Во кладке "Денежные потоки" этого бота имеется видео инструкция пополнения кошелька</t>
   </si>
 </sst>
 </file>
@@ -1241,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1279,10 +1297,10 @@
     </row>
     <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1343,82 +1361,90 @@
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488CD7CA-6313-4782-8A17-A022745A431D}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1451,122 +1477,122 @@
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1654,10 +1680,10 @@
     </row>
     <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1718,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="C52" sqref="C50:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,186 +1942,202 @@
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2160,10 +2202,10 @@
     </row>
     <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2275,26 +2317,26 @@
     </row>
     <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2306,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N7" activeCellId="1" sqref="C12 N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,7 +2378,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" thickBot="1" x14ac:dyDescent="0.3">
@@ -2363,20 +2405,20 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/RAG_knowledge_base_template.xlsx
+++ b/RAG_knowledge_base_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projeckt\potokCash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD56129-3C06-4E7B-B42F-50E813CD8919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE4AE99-9354-4CCA-9C02-88ACF8896036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About_Project" sheetId="1" r:id="rId1"/>
@@ -826,10 +826,10 @@
     <t xml:space="preserve">Дата основания проекта </t>
   </si>
   <si>
-    <t>Дата основания 15 января 2013 год. Проекту уже более 12 лет</t>
-  </si>
-  <si>
     <t>Екаренси покупается в сберкассе и манисторедж или блек бит. Сберкасса это личный кошелек. Во кладке "Денежные потоки" этого бота имеется видео инструкция пополнения кошелька</t>
+  </si>
+  <si>
+    <t>Проект был основан 15 января 2013 год. Проекту уже более 12 лет</t>
   </si>
 </sst>
 </file>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,124 +1287,124 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -1412,39 +1412,39 @@
         <v>177</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C52" sqref="C50:C52"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N7" activeCellId="1" sqref="C12 N7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,7 +2410,7 @@
         <v>230</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
